--- a/optimization/Gurobi/Children+Adults+Elderly/0.5 fraction/compiled.xlsx
+++ b/optimization/Gurobi/Children+Adults+Elderly/0.5 fraction/compiled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>Transport part</t>
   </si>
@@ -49,13 +49,13 @@
     <t>1(12.0 times)</t>
   </si>
   <si>
-    <t>1(54.0 times)</t>
-  </si>
-  <si>
-    <t>1(13.0 times), 2(11.0 times), 5(54.0 times), 6(30.0 times), 9(10.0 times)</t>
-  </si>
-  <si>
-    <t>1(108.0 times), 2(90.0 times), 3(109.0 times), 4(92.0 times), 5(142.0 times), 6(132.0 times), 7(90.0 times), 8(73.0 times), 9(172.0 times), 10(248.0 times)</t>
+    <t>1(69.0 times)</t>
+  </si>
+  <si>
+    <t>1(13.0 times), 2(12.0 times), 4(12.0 times), 5(35.0 times), 6(34.0 times), 9(10.0 times)</t>
+  </si>
+  <si>
+    <t>1(104.0 times), 2(79.0 times), 3(96.0 times), 4(81.0 times), 5(121.0 times), 6(126.0 times), 7(75.0 times), 8(54.0 times), 9(158.0 times), 10(237.0 times)</t>
   </si>
   <si>
     <t>1(648000.0 Rs)</t>
@@ -64,13 +64,13 @@
     <t>1(332400.0 Rs)</t>
   </si>
   <si>
-    <t>1(904234.0 Rs)</t>
-  </si>
-  <si>
-    <t>1(131957.0 Rs), 2(112042.0 Rs), 5(644649.0 Rs), 6(353815.0 Rs), 9(117384.0 Rs)</t>
-  </si>
-  <si>
-    <t>1(571719.0 Rs), 2(474383.0 Rs), 3(572532.0 Rs), 4(475686.0 Rs), 5(748631.0 Rs), 6(700371.0 Rs), 7(476227.0 Rs), 8(384083.0 Rs), 9(916799.0 Rs), 10(1255457.0 Rs)</t>
+    <t>1(959979.0 Rs)</t>
+  </si>
+  <si>
+    <t>1(130979.0 Rs), 2(122170.0 Rs), 4(120000.0 Rs), 5(421142.0 Rs), 6(400492.0 Rs), 9(117384.0 Rs)</t>
+  </si>
+  <si>
+    <t>1(551695.0 Rs), 2(419040.0 Rs), 3(501392.0 Rs), 4(419172.0 Rs), 5(636159.0 Rs), 6(667329.0 Rs), 7(397226.0 Rs), 8(283802.0 Rs), 9(841375.0 Rs), 10(1202012.0 Rs)</t>
   </si>
   <si>
     <t>Inventory part</t>
@@ -100,13 +100,22 @@
     <t>I</t>
   </si>
   <si>
-    <t>1(1 times), 2(5 times), 3(2 times), 4(4 times), 5(6 times), 6(4 times), 7(4 times), 8(5 times), 9(2 times), 10(3 times)</t>
-  </si>
-  <si>
-    <t>1(4006 units), 2(1976 units), 3(3224 units), 4(2490 units), 5(2581 units), 6(2688 units), 7(2459 units), 8(2413 units), 9(2895 units), 10(2298 units)</t>
-  </si>
-  <si>
-    <t>1(2032.0 Rs), 2(4348.0 Rs), 3(2141.0 Rs), 4(4168.0 Rs), 5(6086.0 Rs), 6(4622.0 Rs), 7(4481.0 Rs), 8(5335.0 Rs), 9(3056.0 Rs), 10(3413.0 Rs)</t>
+    <t>1(1 times)</t>
+  </si>
+  <si>
+    <t>1(2 times), 2(7 times), 3(3 times), 4(6 times), 5(7 times), 6(6 times), 7(6 times), 8(8 times), 9(4 times), 10(4 times)</t>
+  </si>
+  <si>
+    <t>1(3.0 units)</t>
+  </si>
+  <si>
+    <t>1(4362 units), 2(1866 units), 3(3222 units), 4(2450 units), 5(2490 units), 6(2557 units), 7(2682 units), 8(3288 units), 9(3199 units), 10(2281 units)</t>
+  </si>
+  <si>
+    <t>1(1 Rs)</t>
+  </si>
+  <si>
+    <t>1(3529.0 Rs), 2(5324.0 Rs), 3(3289.0 Rs), 4(5494.0 Rs), 5(7072.0 Rs), 6(5582.0 Rs), 7(6721.0 Rs), 8(10129.0 Rs), 9(4550.0 Rs), 10(3714.0 Rs)</t>
   </si>
   <si>
     <t>Ordering part</t>
@@ -118,13 +127,13 @@
     <t>1(350000 units)</t>
   </si>
   <si>
-    <t>1(77778 units)</t>
-  </si>
-  <si>
-    <t>1(29297 units), 2(35663 units), 5(42120 units), 6(30968 units), 9(22328 units)</t>
-  </si>
-  <si>
-    <t>1(5004 units), 2(2860 units), 3(3499 units), 4(3121 units), 5(3783 units), 6(3132 units), 7(3140 units), 8(3513 units), 9(3338 units), 10(2701 units)</t>
+    <t>1(60870 units)</t>
+  </si>
+  <si>
+    <t>1(27693 units), 2(39551 units), 4(59114 units), 5(38962 units), 6(30710 units), 9(24821 units)</t>
+  </si>
+  <si>
+    <t>1(4825 units), 2(3725 units), 3(3646 units), 4(3580 units), 5(4033 units), 6(3623 units), 7(3736 units), 8(4597 units), 9(3681 units), 10(2993 units)</t>
   </si>
   <si>
     <t>1(2400000 Rs)</t>
@@ -133,13 +142,13 @@
     <t>1(1200000 Rs)</t>
   </si>
   <si>
-    <t>1(4050000 Rs)</t>
-  </si>
-  <si>
-    <t>1(325000 Rs), 2(275000 Rs), 5(1350000 Rs), 6(750000 Rs), 9(250000 Rs)</t>
-  </si>
-  <si>
-    <t>1(1620000 Rs), 2(1350000 Rs), 3(1635000 Rs), 4(1380000 Rs), 5(2130000 Rs), 6(1980000 Rs), 7(1350000 Rs), 8(1095000 Rs), 9(2580000 Rs), 10(3720000 Rs)</t>
+    <t>1(5175000 Rs)</t>
+  </si>
+  <si>
+    <t>1(325000 Rs), 2(300000 Rs), 4(300000 Rs), 5(875000 Rs), 6(850000 Rs), 9(250000 Rs)</t>
+  </si>
+  <si>
+    <t>1(1560000 Rs), 2(1185000 Rs), 3(1440000 Rs), 4(1215000 Rs), 5(1815000 Rs), 6(1890000 Rs), 7(1125000 Rs), 8(810000 Rs), 9(2370000 Rs), 10(3555000 Rs)</t>
   </si>
   <si>
     <t>Shortage part</t>
@@ -151,6 +160,18 @@
     <t>Number of clinics</t>
   </si>
   <si>
+    <t>Total shortage</t>
+  </si>
+  <si>
+    <t>Childern shortages</t>
+  </si>
+  <si>
+    <t>adults shortages</t>
+  </si>
+  <si>
+    <t>elderly shortages</t>
+  </si>
+  <si>
     <t>Total shortage cost Incurred</t>
   </si>
   <si>
@@ -160,94 +181,94 @@
     <t>Average shortage cost incurred per clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">1(0), 2(11774150000.0), 3(1261200000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(4662000000.0), 3(589500000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(12661150000.0), 3(2164800000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(12878700000.0), 3(1374600000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(16735600000.0), 3(2847000000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(20402900000.0), 3(2585350000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(16865700000.0), 3(2041950000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(9789350000.0), 3(1702800000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(19769550000.0), 3(3509600000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(34435800000.0), 3(4733500000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(235483.0), 3(25224.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(93240.0), 3(11790.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(253223.0), 3(43296.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(257574.0), 3(27492.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(334712.0), 3(56940.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(408058.0), 3(51707.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(337314.0), 3(40839.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(195787.0), 3(34056.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(395391.0), 3(70192.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(688716.0), 3(94670.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1177415000.0), 3(126120000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(777000000.0), 3(98250000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1055095833.3333334), 3(180400000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1073225000.0), 3(114550000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(880821052.6315789), 3(149842105.2631579), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1200170588.235294), 3(152079411.7647059), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1054106250.0), 3(127621875.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(889940909.0909091), 3(154800000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(988477500.0), 3(175480000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1229850000.0), 3(169053571.42857143), </t>
+    <t xml:space="preserve">1(0), 2(13209550000.0), 3(1754600000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(4676400000.0), 3(606000000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(12555700000.0), 3(2249400000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(12503750000.0), 3(1416350000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(17955900000.0), 3(2963900000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(18482200000.0), 3(2546500000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(16664750000.0), 3(2077150000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(10201150000.0), 3(1702650000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(20157150000.0), 3(3870400000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(32605600000.0), 3(4586100000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(68.71384727424054), 3(62.48575498575499), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(97.59579263711495), 3(86.32478632478633), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(72.29880689146859), 3(88.75473484848484), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(89.84128010576536), 3(69.75719070133964), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(88.38826865142654), 3(99.99662618083671), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(88.95338204010126), 3(84.05954974582426), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(89.29585691015089), 3(76.18654636150235), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(87.4224427533251), 3(99.99119097956307), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(74.85572638146168), 3(98.33333333333333), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(93.48793467290577), 3(90.09311645450259), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1320955000.0), 3(175460000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(779400000.0), 3(101000000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1046308333.3333334), 3(187450000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1041979166.6666666), 3(118029166.66666667), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(945047368.4210526), 3(155994736.84210527), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1087188235.2941177), 3(149794117.6470588), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1041546875.0), 3(129821875.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(927377272.7272727), 3(154786363.63636363), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1007857500.0), 3(193520000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1164485714.2857144), 3(163789285.7142857), </t>
   </si>
   <si>
     <t>Nurses part</t>
@@ -617,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>904234</v>
+        <v>959979</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -707,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>1359847</v>
+        <v>1312167</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -724,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>6575888</v>
+        <v>5919202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -756,8 +777,17 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -801,21 +831,21 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>603365.3649818646</v>
+        <v>815818.1877384105</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -823,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -840,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>2400000</v>
@@ -857,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>1200000</v>
@@ -874,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>4050000</v>
+        <v>5175000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -891,13 +921,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E27">
-        <v>2950000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -908,38 +938,50 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>18840000</v>
+        <v>16965000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -949,17 +991,29 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D35">
+        <v>299283</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>68.71384727424054</v>
+      </c>
+      <c r="G35">
+        <v>62.48575498575499</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -969,17 +1023,29 @@
       <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="D36">
+        <v>105648</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>97.59579263711495</v>
+      </c>
+      <c r="G36">
+        <v>86.32478632478633</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -989,17 +1055,29 @@
       <c r="C37">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="D37">
+        <v>296102</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>72.29880689146859</v>
+      </c>
+      <c r="G37">
+        <v>88.75473484848484</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1009,17 +1087,29 @@
       <c r="C38">
         <v>12</v>
       </c>
-      <c r="D38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="D38">
+        <v>278402</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>89.84128010576536</v>
+      </c>
+      <c r="G38">
+        <v>69.75719070133964</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -1029,17 +1119,29 @@
       <c r="C39">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="D39">
+        <v>418396</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>88.38826865142654</v>
+      </c>
+      <c r="G39">
+        <v>99.99662618083671</v>
+      </c>
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -1049,17 +1151,29 @@
       <c r="C40">
         <v>17</v>
       </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="D40">
+        <v>420574</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>88.95338204010126</v>
+      </c>
+      <c r="G40">
+        <v>84.05954974582426</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1069,17 +1183,29 @@
       <c r="C41">
         <v>16</v>
       </c>
-      <c r="D41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="D41">
+        <v>374838</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>89.29585691015089</v>
+      </c>
+      <c r="G41">
+        <v>76.18654636150235</v>
+      </c>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -1089,17 +1215,29 @@
       <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="D42">
+        <v>238076</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>87.4224427533251</v>
+      </c>
+      <c r="G42">
+        <v>99.99119097956307</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -1109,17 +1247,29 @@
       <c r="C43">
         <v>20</v>
       </c>
-      <c r="D43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="D43">
+        <v>480551</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>74.85572638146168</v>
+      </c>
+      <c r="G43">
+        <v>98.33333333333333</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -1129,33 +1279,45 @@
       <c r="C44">
         <v>28</v>
       </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="D44">
+        <v>743834</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>93.48793467290577</v>
+      </c>
+      <c r="G44">
+        <v>90.09311645450259</v>
+      </c>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1166,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>6.808333333333334</v>
+        <v>6.4</v>
       </c>
       <c r="D51">
-        <v>0.8083333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1203,7 +1365,7 @@
         <v>4.604166666666667</v>
       </c>
       <c r="D53">
-        <v>0.4513888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1217,10 +1379,10 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <v>3.125</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="D54">
-        <v>0.2708333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1234,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>3.118421052631579</v>
+        <v>3.008771929824561</v>
       </c>
       <c r="D55">
-        <v>0.2763157894736842</v>
+        <v>0.2543859649122807</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1251,10 +1413,10 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>3.323529411764706</v>
       </c>
       <c r="D56">
-        <v>0.25</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1268,10 +1430,10 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>3.25</v>
+        <v>3.234375</v>
       </c>
       <c r="D57">
-        <v>0.2916666666666667</v>
+        <v>0.3177083333333333</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1302,10 +1464,10 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>4.325</v>
+        <v>4.25</v>
       </c>
       <c r="D59">
-        <v>0.3958333333333333</v>
+        <v>0.4125</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1319,10 +1481,10 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>3.178571428571428</v>
       </c>
       <c r="D60">
-        <v>0.25</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="E60">
         <v>0</v>
